--- a/Documents/Kickoff Agile Burndown Chart (SP).xlsx
+++ b/Documents/Kickoff Agile Burndown Chart (SP).xlsx
@@ -5,17 +5,41 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\6 semester\Software Project Managment\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB97E0C-3529-4B69-B486-35039FF7F634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523A7771-6334-4077-8D30-97506AA8DF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Inputs" sheetId="1" r:id="rId1"/>
-    <sheet name="Burndown Chart" sheetId="6" r:id="rId2"/>
+    <sheet name="velocity chart" sheetId="7" r:id="rId2"/>
+    <sheet name="Burndown Chart" sheetId="6" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Project Inputs'!$V$22</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Project Inputs'!$V$23</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Project Inputs'!$W$21:$AF$21</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Project Inputs'!$W$22:$AF$22</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Project Inputs'!$W$23:$AF$23</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Project Inputs'!$W$24:$AF$24</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Project Inputs'!$V$22</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Project Inputs'!$V$23</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Project Inputs'!$V$24</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Project Inputs'!$W$21:$AF$21</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Project Inputs'!$W$22:$AF$22</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Project Inputs'!$W$23:$AF$23</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Project Inputs'!$V$24</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Project Inputs'!$W$24:$AF$24</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Project Inputs'!$W$21:$AF$21</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Project Inputs'!$W$22:$AF$22</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Project Inputs'!$W$23:$AF$23</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Project Inputs'!$W$24:$AF$24</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Project Inputs'!$V$22</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Project Inputs'!$V$23</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Project Inputs'!$V$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
   <si>
     <t>Name</t>
   </si>
@@ -253,6 +277,12 @@
   </si>
   <si>
     <t>Cloud Kitchen</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Velocity Chart Data</t>
   </si>
 </sst>
 </file>
@@ -812,6 +842,1041 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="150" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Project Inputs'!$V$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Effort (Story Points)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent1"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Project Inputs'!$W$21:$AF$21</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Day 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Project Inputs'!$W$22:$AF$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8423-441C-9E07-0D45E399952C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Project Inputs'!$V$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ideal Effort (Story Points)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narHorz">
+              <a:fgClr>
+                <a:schemeClr val="accent3"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="20000"/>
+                  <a:lumOff val="80000"/>
+                </a:schemeClr>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:innerShdw blurRad="114300">
+                <a:schemeClr val="accent3"/>
+              </a:innerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Project Inputs'!$W$21:$AF$21</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Day 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Project Inputs'!$W$23:$AF$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8423-441C-9E07-0D45E399952C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="302818016"/>
+        <c:axId val="1"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Project Inputs'!$V$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.3772094905849933E-17"/>
+                  <c:y val="3.839752626363737E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-8423-441C-9E07-0D45E399952C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="2.8292914088996014E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-8423-441C-9E07-0D45E399952C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0754418981169987E-16"/>
+                  <c:y val="2.4251069219139439E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-8423-441C-9E07-0D45E399952C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="2.6271991654067729E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-8423-441C-9E07-0D45E399952C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9330572410369198E-3"/>
+                  <c:y val="1.6167459043301684E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="3.5123360461418403E-2"/>
+                      <c:h val="2.8262679816347475E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-8423-441C-9E07-0D45E399952C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0754418981169987E-16"/>
+                  <c:y val="2.8292914088996014E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-8423-441C-9E07-0D45E399952C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.9330572410369198E-3"/>
+                  <c:y val="2.4251069219139439E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-8423-441C-9E07-0D45E399952C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.3995858615554339E-3"/>
+                  <c:y val="2.4251069219139439E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-8423-441C-9E07-0D45E399952C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.9330572410370273E-3"/>
+                  <c:y val="3.6376603828709088E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-8423-441C-9E07-0D45E399952C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Project Inputs'!$W$21:$AF$21</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Day 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Day 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Day 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Day 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Project Inputs'!$W$24:$AF$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8423-441C-9E07-0D45E399952C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="302818016"/>
+        <c:axId val="1"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="302818016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Effort (Story Points)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302818016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -1457,6 +2522,43 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -1494,6 +2596,526 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2078,6 +3700,39 @@
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
+    <xdr:pos x="5669797" y="5385661"/>
+    <xdr:ext cx="8659906" cy="6284259"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E306C499-45C8-48EC-A362-29DD60238EF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8659906" cy="6284259"/>
     <xdr:graphicFrame macro="">
@@ -2395,10 +4050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R215"/>
+  <dimension ref="A1:AF215"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:N3"/>
+    <sheetView tabSelected="1" zoomScale="37" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2406,6 +4061,7 @@
     <col min="2" max="2" width="59.44140625" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="14" width="12.77734375" customWidth="1"/>
+    <col min="22" max="22" width="36.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
@@ -2768,7 +4424,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="25"/>
       <c r="C17" s="5" t="s">
@@ -2792,7 +4448,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="25"/>
       <c r="C18" s="4" t="s">
@@ -2815,8 +4471,21 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V18" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+    </row>
+    <row r="19" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2836,7 +4505,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:32" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
@@ -2878,7 +4547,7 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" s="15" t="s">
         <v>70</v>
@@ -2892,39 +4561,39 @@
         <v>147</v>
       </c>
       <c r="E21" s="18">
-        <f>D21-SUM(E25:E100)</f>
+        <f t="shared" ref="E21:M21" si="0">D21-SUM(E25:E100)</f>
         <v>126</v>
       </c>
       <c r="F21" s="18">
-        <f>E21-SUM(F25:F100)</f>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="G21" s="18">
-        <f>F21-SUM(G25:G100)</f>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="H21" s="18">
-        <f>G21-SUM(H25:H100)</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="I21" s="18">
-        <f>H21-SUM(I25:I100)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="J21" s="18">
-        <f>I21-SUM(J25:J100)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="K21" s="18">
-        <f>J21-SUM(K25:K100)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="L21" s="18">
-        <f>K21-SUM(L25:L100)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="M21" s="18">
-        <f>L21-SUM(M25:M100)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="N21" s="1"/>
@@ -2932,8 +4601,39 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="V21" s="10"/>
+      <c r="W21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF21" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="16" t="s">
         <v>69</v>
@@ -2943,43 +4643,43 @@
         <v>155</v>
       </c>
       <c r="D22" s="19">
-        <f t="shared" ref="D22:M22" si="0">C22-($C$22/10)</f>
+        <f t="shared" ref="D22:M22" si="1">C22-($C$22/10)</f>
         <v>139.5</v>
       </c>
       <c r="E22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="F22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>108.5</v>
       </c>
       <c r="G22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="H22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
       <c r="I22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="J22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46.5</v>
       </c>
       <c r="K22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="L22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.5</v>
       </c>
       <c r="M22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N22" s="1"/>
@@ -2987,8 +4687,51 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="W22" s="18">
+        <f>C21-D21</f>
+        <v>8</v>
+      </c>
+      <c r="X22" s="18">
+        <f>D21-E21</f>
+        <v>21</v>
+      </c>
+      <c r="Y22" s="18">
+        <f>E21-F21</f>
+        <v>11</v>
+      </c>
+      <c r="Z22" s="18">
+        <f>F21-G21</f>
+        <v>12</v>
+      </c>
+      <c r="AA22" s="18">
+        <f>G21-H21</f>
+        <v>23</v>
+      </c>
+      <c r="AB22" s="18">
+        <f>H21-I21</f>
+        <v>23</v>
+      </c>
+      <c r="AC22" s="18">
+        <f>I21-J21</f>
+        <v>17</v>
+      </c>
+      <c r="AD22" s="18">
+        <f>J21-K21</f>
+        <v>18</v>
+      </c>
+      <c r="AE22" s="18">
+        <f>K21-L21</f>
+        <v>11</v>
+      </c>
+      <c r="AF22" s="18">
+        <f>L21-M21</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="17"/>
       <c r="C23" s="8"/>
@@ -3007,8 +4750,51 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="V23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="W23" s="19">
+        <f>C21-D21</f>
+        <v>8</v>
+      </c>
+      <c r="X23" s="19">
+        <f>D22-E22</f>
+        <v>15.5</v>
+      </c>
+      <c r="Y23" s="19">
+        <f>E22-F22</f>
+        <v>15.5</v>
+      </c>
+      <c r="Z23" s="19">
+        <f>F22-G22</f>
+        <v>15.5</v>
+      </c>
+      <c r="AA23" s="19">
+        <f>G22-H22</f>
+        <v>15.5</v>
+      </c>
+      <c r="AB23" s="19">
+        <f>H22-I22</f>
+        <v>15.5</v>
+      </c>
+      <c r="AC23" s="19">
+        <f>I22-J22</f>
+        <v>15.5</v>
+      </c>
+      <c r="AD23" s="19">
+        <f>J22-K22</f>
+        <v>15.5</v>
+      </c>
+      <c r="AE23" s="19">
+        <f>K22-L22</f>
+        <v>15.5</v>
+      </c>
+      <c r="AF23" s="19">
+        <f>L22-M22</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="B24" s="13" t="s">
         <v>5</v>
@@ -3053,8 +4839,51 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="V24" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="W24" s="19">
+        <f>C22/10</f>
+        <v>15.5</v>
+      </c>
+      <c r="X24" s="19">
+        <f>C22/10</f>
+        <v>15.5</v>
+      </c>
+      <c r="Y24" s="19">
+        <f>C22/10</f>
+        <v>15.5</v>
+      </c>
+      <c r="Z24" s="19">
+        <f>C22/10</f>
+        <v>15.5</v>
+      </c>
+      <c r="AA24" s="19">
+        <f>C22/10</f>
+        <v>15.5</v>
+      </c>
+      <c r="AB24" s="19">
+        <f>C22/10</f>
+        <v>15.5</v>
+      </c>
+      <c r="AC24" s="19">
+        <f>C22/10</f>
+        <v>15.5</v>
+      </c>
+      <c r="AD24" s="19">
+        <f>C22/10</f>
+        <v>15.5</v>
+      </c>
+      <c r="AE24" s="19">
+        <f>C22/10</f>
+        <v>15.5</v>
+      </c>
+      <c r="AF24" s="19">
+        <f>C22/10</f>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="21" t="s">
         <v>29</v>
@@ -3083,7 +4912,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="20" t="s">
         <v>30</v>
@@ -3104,7 +4933,7 @@
       <c r="L26" s="22"/>
       <c r="M26" s="22"/>
       <c r="N26">
-        <f t="shared" ref="N26:N58" si="1">SUM(D26:M26)</f>
+        <f t="shared" ref="N26:N58" si="2">SUM(D26:M26)</f>
         <v>5</v>
       </c>
       <c r="O26" s="1"/>
@@ -3112,7 +4941,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="20" t="s">
         <v>31</v>
@@ -3133,7 +4962,7 @@
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O27" s="1"/>
@@ -3141,7 +4970,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="20" t="s">
         <v>32</v>
@@ -3162,7 +4991,7 @@
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O28" s="1"/>
@@ -3170,7 +4999,7 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="20" t="s">
         <v>48</v>
@@ -3191,7 +5020,7 @@
       <c r="L29" s="22"/>
       <c r="M29" s="22"/>
       <c r="N29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O29" s="1"/>
@@ -3199,7 +5028,7 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="20" t="s">
         <v>33</v>
@@ -3220,7 +5049,7 @@
       <c r="L30" s="22"/>
       <c r="M30" s="22"/>
       <c r="N30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O30" s="1"/>
@@ -3228,7 +5057,7 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="20" t="s">
         <v>34</v>
@@ -3249,7 +5078,7 @@
       <c r="L31" s="22"/>
       <c r="M31" s="22"/>
       <c r="N31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O31" s="1"/>
@@ -3257,7 +5086,7 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="20" t="s">
         <v>35</v>
@@ -3278,7 +5107,7 @@
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O32" s="1"/>
@@ -3307,7 +5136,7 @@
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O33" s="1"/>
@@ -3338,7 +5167,7 @@
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O34" s="1"/>
@@ -3367,7 +5196,7 @@
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O35" s="1"/>
@@ -3396,7 +5225,7 @@
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O36" s="1"/>
@@ -3425,7 +5254,7 @@
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O37" s="1"/>
@@ -3454,7 +5283,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O38" s="1"/>
@@ -3483,7 +5312,7 @@
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O39" s="1"/>
@@ -3512,7 +5341,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O40" s="1"/>
@@ -3541,7 +5370,7 @@
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O41" s="1"/>
@@ -3570,7 +5399,7 @@
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O42" s="1"/>
@@ -3601,7 +5430,7 @@
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O43" s="1"/>
@@ -3630,7 +5459,7 @@
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O44" s="1"/>
@@ -3659,7 +5488,7 @@
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O45" s="1"/>
@@ -3688,7 +5517,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O46" s="1"/>
@@ -3717,7 +5546,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O47" s="1"/>
@@ -3741,7 +5570,7 @@
         <v>7</v>
       </c>
       <c r="N48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O48" s="1"/>
@@ -3762,7 +5591,7 @@
         <v>3</v>
       </c>
       <c r="N49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O49" s="1"/>
@@ -3784,7 +5613,7 @@
         <v>2</v>
       </c>
       <c r="N50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O50" s="1"/>
@@ -3805,7 +5634,7 @@
         <v>5</v>
       </c>
       <c r="N51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O51" s="1"/>
@@ -3826,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="N52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O52" s="1"/>
@@ -3846,7 +5675,7 @@
         <v>3</v>
       </c>
       <c r="N53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O53" s="1"/>
@@ -3866,7 +5695,7 @@
         <v>2</v>
       </c>
       <c r="N54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="O54" s="1"/>
@@ -3886,7 +5715,7 @@
         <v>5</v>
       </c>
       <c r="N55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="O55" s="1"/>
@@ -3906,7 +5735,7 @@
         <v>8</v>
       </c>
       <c r="N56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O56" s="1"/>
@@ -3926,7 +5755,7 @@
         <v>3</v>
       </c>
       <c r="N57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="O57" s="1"/>
@@ -3946,7 +5775,7 @@
         <v>8</v>
       </c>
       <c r="N58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="O58" s="1"/>
@@ -5123,7 +6952,8 @@
       <c r="R215" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="V18:AF18"/>
     <mergeCell ref="D3:N3"/>
     <mergeCell ref="C2:N2"/>
     <mergeCell ref="B13:B18"/>
@@ -5146,13 +6976,25 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AF6A1B8-B6BC-484B-9834-25246D40C2B8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="55" workbookViewId="0">
+      <selection activeCell="Z47" sqref="Z47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5373,15 +7215,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14778899-9FF4-4900-9C86-5D64E5072CA9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE937400-0E6F-40CE-86DC-F80FAEBDE878}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="675b2d5a-2a5b-4198-b316-84224b1699b9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="9926c504-9366-4d27-ba67-e7df4b72c3ca"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5406,18 +7260,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BE937400-0E6F-40CE-86DC-F80FAEBDE878}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14778899-9FF4-4900-9C86-5D64E5072CA9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="675b2d5a-2a5b-4198-b316-84224b1699b9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="9926c504-9366-4d27-ba67-e7df4b72c3ca"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>